--- a/trunk/1. Project management/7. Measurement plan/Templates/AS_ME_CustomerSatisfactionSurvey_Template.xlsx
+++ b/trunk/1. Project management/7. Measurement plan/Templates/AS_ME_CustomerSatisfactionSurvey_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AS project\Admission System\1. Project management\7. Measurement plan\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\7. Measurement plan\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,15 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Look up" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sprint 1 chart" sheetId="3" r:id="rId3"/>
+    <sheet name="Web" sheetId="2" r:id="rId2"/>
+    <sheet name="Android" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>Score</t>
   </si>
@@ -62,26 +62,125 @@
     <t>Functional</t>
   </si>
   <si>
-    <t>Customer Satisfaction Survey on Sprint 1</t>
-  </si>
-  <si>
     <t>Non-Functional</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Project: Admission system - DeadlineTeam - Mentor: Mr. Bui Minh Phung</t>
   </si>
   <si>
     <t>Project Change Manager:</t>
+  </si>
+  <si>
+    <t>Customer Satisfaction Survey on Web system</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Công cụ hiển thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm câu hỏi </t>
+  </si>
+  <si>
+    <t>Xem chi tiết câu hỏi</t>
+  </si>
+  <si>
+    <t>Tạo câu hỏi</t>
+  </si>
+  <si>
+    <t>Thay đổi phân trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Công cụ quản trị</t>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Xem nội dung câu hỏi</t>
+  </si>
+  <si>
+    <t>Tạo câu trả lời</t>
+  </si>
+  <si>
+    <t>Xóa câu hỏi</t>
+  </si>
+  <si>
+    <t>Xóa nhiều câu hỏi</t>
+  </si>
+  <si>
+    <t>Khôi phục câu hỏi</t>
+  </si>
+  <si>
+    <t>Khôi phục nhiều câu hỏi</t>
+  </si>
+  <si>
+    <t>Đưa vào từ điển</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa câu hỏi trong bộ từ điển</t>
+  </si>
+  <si>
+    <t>Đăng câu hỏi lên internet</t>
+  </si>
+  <si>
+    <t>Đăng nhiều câu hỏi lên internet</t>
+  </si>
+  <si>
+    <t>Hạ câu hỏi khỏi internet</t>
+  </si>
+  <si>
+    <t>Hạ nhiều câu hỏi khỏi internet</t>
+  </si>
+  <si>
+    <t>Tạo index</t>
+  </si>
+  <si>
+    <t>Cấu hình người dùng</t>
+  </si>
+  <si>
+    <t>Cấu hình mail</t>
+  </si>
+  <si>
+    <t>Cấu hình hệ thống</t>
+  </si>
+  <si>
+    <t>Trợ giúp</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Integrity</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Customer Satisfaction Survey on Android application</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng kí (Tạo tài khoản)</t>
+  </si>
+  <si>
+    <t>Xem thông tin tài khoản</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +271,29 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +336,14 @@
         <bgColor indexed="31"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -340,13 +466,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -357,10 +520,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -368,17 +527,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -386,18 +539,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -415,6 +562,36 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -427,42 +604,41 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,7 +969,7 @@
       <c r="A2" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
@@ -801,7 +977,7 @@
       <c r="A3" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -809,7 +985,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -817,7 +993,7 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -825,7 +1001,7 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -836,316 +1012,980 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10" style="9" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" style="6" customWidth="1"/>
-    <col min="6" max="7" width="26.5703125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="39.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="26.5703125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="21" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="21" t="s">
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="22"/>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="26.5703125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/1. Project management/7. Measurement plan/Templates/AS_ME_CustomerSatisfactionSurvey_Template.xlsx
+++ b/trunk/1. Project management/7. Measurement plan/Templates/AS_ME_CustomerSatisfactionSurvey_Template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Score</t>
   </si>
@@ -62,15 +62,9 @@
     <t>Functional</t>
   </si>
   <si>
-    <t>Non-Functional</t>
-  </si>
-  <si>
     <t>Project: Admission system - DeadlineTeam - Mentor: Mr. Bui Minh Phung</t>
   </si>
   <si>
-    <t>Project Change Manager:</t>
-  </si>
-  <si>
     <t>Customer Satisfaction Survey on Web system</t>
   </si>
   <si>
@@ -146,21 +140,6 @@
     <t>Trợ giúp</t>
   </si>
   <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Integrity</t>
-  </si>
-  <si>
-    <t>Usability</t>
-  </si>
-  <si>
-    <t>Scalability</t>
-  </si>
-  <si>
-    <t>Reliability</t>
-  </si>
-  <si>
     <t>Customer Satisfaction Survey on Android application</t>
   </si>
   <si>
@@ -174,13 +153,19 @@
   </si>
   <si>
     <t>Đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Functions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,12 +223,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color indexed="25"/>
@@ -285,15 +264,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,12 +298,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="31"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="31"/>
       </patternFill>
@@ -343,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -386,71 +352,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,7 +410,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -541,104 +442,98 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,7 +864,7 @@
       <c r="A2" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -977,7 +872,7 @@
       <c r="A3" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -985,7 +880,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -993,7 +888,7 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1001,7 +896,7 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1012,10 +907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1029,104 +924,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>18</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1135,8 +1028,8 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>19</v>
+      <c r="A11" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1145,8 +1038,8 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>20</v>
+      <c r="A12" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1155,8 +1048,8 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>21</v>
+      <c r="A13" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1165,41 +1058,41 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="A14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="A15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+      <c r="A16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>23</v>
+      <c r="A17" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1209,8 +1102,8 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>24</v>
+      <c r="A18" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1220,8 +1113,8 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>25</v>
+      <c r="A19" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1231,8 +1124,8 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>26</v>
+      <c r="A20" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1242,8 +1135,8 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>27</v>
+      <c r="A21" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1253,8 +1146,8 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>28</v>
+      <c r="A22" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1264,8 +1157,8 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>29</v>
+      <c r="A23" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1275,8 +1168,8 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>30</v>
+      <c r="A24" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1286,8 +1179,8 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>31</v>
+      <c r="A25" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1297,8 +1190,8 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>32</v>
+      <c r="A26" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1308,8 +1201,8 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>33</v>
+      <c r="A27" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1319,8 +1212,8 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>34</v>
+      <c r="A28" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1330,8 +1223,8 @@
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>35</v>
+      <c r="A29" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1341,8 +1234,8 @@
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>36</v>
+      <c r="A30" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1352,8 +1245,8 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>20</v>
+      <c r="A31" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1363,8 +1256,8 @@
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>37</v>
+      <c r="A32" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1374,8 +1267,8 @@
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>38</v>
+      <c r="A33" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1385,8 +1278,8 @@
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>39</v>
+      <c r="A34" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1396,8 +1289,8 @@
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>40</v>
+      <c r="A35" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1407,8 +1300,8 @@
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>21</v>
+      <c r="A36" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1418,8 +1311,8 @@
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
-        <v>49</v>
+      <c r="A37" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1429,8 +1322,8 @@
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
-        <v>50</v>
+      <c r="A38" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1440,7 +1333,7 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1457,116 +1350,91 @@
       <c r="F40" s="10"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="A43" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="16"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:B8"/>
@@ -1575,6 +1443,9 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="A9:F9"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1583,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1600,104 +1471,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="A1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="A4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>18</v>
+      <c r="A10" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1706,8 +1575,8 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>19</v>
+      <c r="A11" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1716,8 +1585,8 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>20</v>
+      <c r="A12" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1726,19 +1595,19 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="A13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>23</v>
+      <c r="A14" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1748,8 +1617,8 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>24</v>
+      <c r="A15" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1759,8 +1628,8 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>25</v>
+      <c r="A16" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1770,8 +1639,8 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>26</v>
+      <c r="A17" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1781,8 +1650,8 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>28</v>
+      <c r="A18" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1792,8 +1661,8 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>30</v>
+      <c r="A19" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1803,8 +1672,8 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>31</v>
+      <c r="A20" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1814,8 +1683,8 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>32</v>
+      <c r="A21" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1825,8 +1694,8 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>34</v>
+      <c r="A22" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1836,8 +1705,8 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>20</v>
+      <c r="A23" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1847,8 +1716,8 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>47</v>
+      <c r="A24" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1866,115 +1735,66 @@
       <c r="F25" s="10"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="15" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="15" t="s">
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="16"/>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
@@ -1984,6 +1804,9 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
